--- a/biology/Médecine/Syndrome_de_Meckel/Syndrome_de_Meckel.xlsx
+++ b/biology/Médecine/Syndrome_de_Meckel/Syndrome_de_Meckel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Meckel est un syndrome médical qui associe typiquement une :
 polydactylie postaxiale ;
@@ -514,7 +526,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syndrome de Gruber
 Syndrome de Meckel-Gruber
@@ -546,7 +560,9 @@
           <t>Incidence et prévalence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette pathologie est particulièrement fréquente dans l'héritage finlandais en raison d'un effet fondateur.
 </t>
@@ -577,13 +593,15 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le gène en cause est pour le moment inconnu mais plusieurs locus sont retrouvés responsable de ce syndrome :
 locus MKS1 sur le chromosome 17 pour le syndrome de Meckel type 1 ;
 locus MKS2 sur le chromosome 11 pour le syndrome de Meckel type 2 ;
 locus MKS3 sur le chromosome 8 pour le syndrome de Meckel type 3.
-gène CEP290 situé sur le chromosome 12[1].</t>
+gène CEP290 situé sur le chromosome 12.</t>
         </is>
       </c>
     </row>
@@ -611,7 +629,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La polykystose rénale est une anomalie obligatoire dans ce syndrome. Les autres anomalies qui doivent être présentes pour parler de syndrome de Meckel sont : l'encéphalocèle et la fibrose hépatique.
 </t>
@@ -644,8 +664,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode de transmission
-Le mode de transmission est autosomique récessif.
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mode de transmission est autosomique récessif.
 </t>
         </is>
       </c>
@@ -674,11 +699,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:249000 [1]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:603194 [2]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:607361 [3]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:249000 
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:603194 
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:607361 </t>
         </is>
       </c>
     </row>
